--- a/data/2018 carrizo camtrap-metadata.xlsx
+++ b/data/2018 carrizo camtrap-metadata.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariozuliani/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-32760" yWindow="0" windowWidth="25280" windowHeight="15380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="52">
   <si>
     <t>PS1</t>
   </si>
@@ -176,6 +181,9 @@
   <si>
     <t>video cams are on Site 3</t>
   </si>
+  <si>
+    <t>VO4 no data</t>
+  </si>
 </sst>
 </file>
 
@@ -223,8 +231,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -233,9 +243,11 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -503,7 +515,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -511,27 +523,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:M161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="N142" sqref="N142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="13" max="13" width="36.875" customWidth="1"/>
-    <col min="14" max="14" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.83203125" customWidth="1"/>
+    <col min="14" max="14" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -572,7 +584,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -613,7 +625,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -654,7 +666,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -692,7 +704,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -730,7 +742,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -768,7 +780,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -806,7 +818,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -844,7 +856,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -882,7 +894,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -920,7 +932,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -958,7 +970,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -996,7 +1008,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1034,7 +1046,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1072,7 +1084,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1110,7 +1122,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1148,7 +1160,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1186,7 +1198,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1224,7 +1236,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1262,7 +1274,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1300,7 +1312,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1338,7 +1350,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1376,7 +1388,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1414,7 +1426,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1452,7 +1464,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1490,7 +1502,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1528,7 +1540,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1566,7 +1578,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1604,7 +1616,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1642,7 +1654,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1680,7 +1692,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1718,7 +1730,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1756,7 +1768,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1794,1357 +1806,4875 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>0</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
+      <c r="C34" s="1">
+        <v>43235</v>
+      </c>
       <c r="D34" t="s">
         <v>44</v>
       </c>
       <c r="E34" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="F34" s="2">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="G34">
+        <v>35.119</v>
+      </c>
+      <c r="H34">
+        <v>-119.63033</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>553</v>
+      </c>
+      <c r="K34">
+        <v>417</v>
+      </c>
+      <c r="L34">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
+      <c r="C35" s="1">
+        <v>43235</v>
+      </c>
       <c r="D35" t="s">
         <v>44</v>
       </c>
       <c r="E35" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="F35" s="2">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="G35">
+        <v>35.118690000000001</v>
+      </c>
+      <c r="H35">
+        <v>-119.63016</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>531</v>
+      </c>
+      <c r="K35">
+        <v>402</v>
+      </c>
+      <c r="L35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
+      <c r="C36" s="1">
+        <v>43235</v>
+      </c>
       <c r="D36" t="s">
         <v>44</v>
       </c>
       <c r="E36" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="F36" s="2">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="G36">
+        <v>35.119900000000001</v>
+      </c>
+      <c r="H36">
+        <v>-119.62839</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>515</v>
+      </c>
+      <c r="K36">
+        <v>419</v>
+      </c>
+      <c r="L36">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>3</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
+      <c r="C37" s="1">
+        <v>43235</v>
+      </c>
       <c r="D37" t="s">
         <v>44</v>
       </c>
       <c r="E37" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="F37" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G37">
+        <v>35.120510000000003</v>
+      </c>
+      <c r="H37">
+        <v>-119.62907</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>423</v>
+      </c>
+      <c r="K37">
+        <v>356</v>
+      </c>
+      <c r="L37">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
+      <c r="C38" s="1">
+        <v>43235</v>
+      </c>
       <c r="D38" t="s">
         <v>44</v>
       </c>
       <c r="E38" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="F38" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="G38">
+        <v>35.120669999999997</v>
+      </c>
+      <c r="H38">
+        <v>-119.62943</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>262</v>
+      </c>
+      <c r="K38">
+        <v>236</v>
+      </c>
+      <c r="L38">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>5</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
+      <c r="C39" s="1">
+        <v>43235</v>
+      </c>
       <c r="D39" t="s">
         <v>44</v>
       </c>
       <c r="E39" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="F39" s="2">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="G39">
+        <v>35.120019999999997</v>
+      </c>
+      <c r="H39">
+        <v>-119.62820000000001</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>254</v>
+      </c>
+      <c r="K39">
+        <v>246</v>
+      </c>
+      <c r="L39">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
+      <c r="C40" s="1">
+        <v>43235</v>
+      </c>
       <c r="D40" t="s">
         <v>44</v>
       </c>
       <c r="E40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="F40" s="2">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="G40">
+        <v>35.118319999999997</v>
+      </c>
+      <c r="H40">
+        <v>-119.63064</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>411</v>
+      </c>
+      <c r="K40">
+        <v>399</v>
+      </c>
+      <c r="L40">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
+      <c r="C41" s="1">
+        <v>43235</v>
+      </c>
       <c r="D41" t="s">
         <v>44</v>
       </c>
       <c r="E41" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="F41" s="2">
+        <v>0.51874999999999993</v>
+      </c>
+      <c r="G41">
+        <v>35.118310000000001</v>
+      </c>
+      <c r="H41">
+        <v>-119.62988</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>427</v>
+      </c>
+      <c r="K41">
+        <v>322</v>
+      </c>
+      <c r="L41">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>8</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
+      <c r="C42" s="1">
+        <v>43235</v>
+      </c>
       <c r="D42" t="s">
         <v>44</v>
       </c>
       <c r="E42" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="F42" s="2">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="G42">
+        <v>35.119</v>
+      </c>
+      <c r="H42">
+        <v>-119.63033</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>553</v>
+      </c>
+      <c r="K42">
+        <v>417</v>
+      </c>
+      <c r="L42">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>9</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
+      <c r="C43" s="1">
+        <v>43235</v>
+      </c>
       <c r="D43" t="s">
         <v>44</v>
       </c>
       <c r="E43" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="F43" s="2">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="G43">
+        <v>35.118690000000001</v>
+      </c>
+      <c r="H43">
+        <v>-119.63016</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>531</v>
+      </c>
+      <c r="K43">
+        <v>402</v>
+      </c>
+      <c r="L43">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>10</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
+      <c r="C44" s="1">
+        <v>43235</v>
+      </c>
       <c r="D44" t="s">
         <v>44</v>
       </c>
       <c r="E44" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="F44" s="2">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="G44">
+        <v>35.119900000000001</v>
+      </c>
+      <c r="H44">
+        <v>-119.62839</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>515</v>
+      </c>
+      <c r="K44">
+        <v>419</v>
+      </c>
+      <c r="L44">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>11</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
+      <c r="C45" s="1">
+        <v>43235</v>
+      </c>
       <c r="D45" t="s">
         <v>44</v>
       </c>
       <c r="E45" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="F45" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G45">
+        <v>35.120510000000003</v>
+      </c>
+      <c r="H45">
+        <v>-119.62907</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>423</v>
+      </c>
+      <c r="K45">
+        <v>356</v>
+      </c>
+      <c r="L45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>12</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
+      <c r="C46" s="1">
+        <v>43235</v>
+      </c>
       <c r="D46" t="s">
         <v>44</v>
       </c>
       <c r="E46" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="F46" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="G46">
+        <v>35.120669999999997</v>
+      </c>
+      <c r="H46">
+        <v>-119.62943</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>262</v>
+      </c>
+      <c r="K46">
+        <v>236</v>
+      </c>
+      <c r="L46">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>13</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
+      <c r="C47" s="1">
+        <v>43235</v>
+      </c>
       <c r="D47" t="s">
         <v>44</v>
       </c>
       <c r="E47" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="F47" s="2">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="G47">
+        <v>35.120019999999997</v>
+      </c>
+      <c r="H47">
+        <v>-119.62820000000001</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>254</v>
+      </c>
+      <c r="K47">
+        <v>246</v>
+      </c>
+      <c r="L47">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>14</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
+      <c r="C48" s="1">
+        <v>43235</v>
+      </c>
       <c r="D48" t="s">
         <v>44</v>
       </c>
       <c r="E48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" s="2">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="G48">
+        <v>35.118319999999997</v>
+      </c>
+      <c r="H48">
+        <v>-119.63064</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>411</v>
+      </c>
+      <c r="K48">
+        <v>399</v>
+      </c>
+      <c r="L48">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>15</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
+      <c r="C49" s="1">
+        <v>43235</v>
+      </c>
       <c r="D49" t="s">
         <v>44</v>
       </c>
       <c r="E49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" s="2">
+        <v>0.51874999999999993</v>
+      </c>
+      <c r="G49">
+        <v>35.118310000000001</v>
+      </c>
+      <c r="H49">
+        <v>-119.62988</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>427</v>
+      </c>
+      <c r="K49">
+        <v>322</v>
+      </c>
+      <c r="L49">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>16</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
+      <c r="C50" s="1">
+        <v>43234</v>
+      </c>
       <c r="D50" t="s">
         <v>45</v>
       </c>
       <c r="E50" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" s="2">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="G50">
+        <v>35.163359999999997</v>
+      </c>
+      <c r="H50">
+        <v>-119.67448</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>386</v>
+      </c>
+      <c r="K50">
+        <v>314</v>
+      </c>
+      <c r="L50">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>17</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
+      <c r="C51" s="1">
+        <v>43234</v>
+      </c>
       <c r="D51" t="s">
         <v>45</v>
       </c>
       <c r="E51" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="G51">
+        <v>35.163710000000002</v>
+      </c>
+      <c r="H51">
+        <v>-119.67426</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>343</v>
+      </c>
+      <c r="K51">
+        <v>262</v>
+      </c>
+      <c r="L51">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>18</v>
       </c>
       <c r="B52">
         <v>2</v>
       </c>
+      <c r="C52" s="1">
+        <v>43234</v>
+      </c>
       <c r="D52" t="s">
         <v>45</v>
       </c>
       <c r="E52" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" s="2">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="G52">
+        <v>35.163910000000001</v>
+      </c>
+      <c r="H52">
+        <v>-119.67435999999999</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>295</v>
+      </c>
+      <c r="K52">
+        <v>276</v>
+      </c>
+      <c r="L52">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>19</v>
       </c>
       <c r="B53">
         <v>2</v>
       </c>
+      <c r="C53" s="1">
+        <v>43234</v>
+      </c>
       <c r="D53" t="s">
         <v>45</v>
       </c>
       <c r="E53" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" s="2">
+        <v>0.4458333333333333</v>
+      </c>
+      <c r="G53">
+        <v>35.163670000000003</v>
+      </c>
+      <c r="H53">
+        <v>-119.64761</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>386</v>
+      </c>
+      <c r="K53">
+        <v>317</v>
+      </c>
+      <c r="L53">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>20</v>
       </c>
       <c r="B54">
         <v>2</v>
       </c>
+      <c r="C54" s="1">
+        <v>43234</v>
+      </c>
       <c r="D54" t="s">
         <v>45</v>
       </c>
       <c r="E54" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" s="2">
+        <v>0.47083333333333338</v>
+      </c>
+      <c r="G54">
+        <v>35.163069999999998</v>
+      </c>
+      <c r="H54">
+        <v>-119.67505</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>304</v>
+      </c>
+      <c r="K54">
+        <v>256</v>
+      </c>
+      <c r="L54">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>21</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
+      <c r="C55" s="1">
+        <v>43234</v>
+      </c>
       <c r="D55" t="s">
         <v>45</v>
       </c>
       <c r="E55" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" s="2">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="G55">
+        <v>35.163150000000002</v>
+      </c>
+      <c r="H55">
+        <v>-119.67476000000001</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>384</v>
+      </c>
+      <c r="K55">
+        <v>298</v>
+      </c>
+      <c r="L55">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>22</v>
       </c>
       <c r="B56">
         <v>2</v>
       </c>
+      <c r="C56" s="1">
+        <v>43234</v>
+      </c>
       <c r="D56" t="s">
         <v>45</v>
       </c>
       <c r="E56" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G56">
+        <v>35.16283</v>
+      </c>
+      <c r="H56">
+        <v>-119.67534999999999</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>397</v>
+      </c>
+      <c r="K56">
+        <v>275</v>
+      </c>
+      <c r="L56">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>23</v>
       </c>
       <c r="B57">
         <v>2</v>
       </c>
+      <c r="C57" s="1">
+        <v>43234</v>
+      </c>
       <c r="D57" t="s">
         <v>45</v>
       </c>
       <c r="E57" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" s="2">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="G57">
+        <v>35.162460000000003</v>
+      </c>
+      <c r="H57">
+        <v>-119.67507000000001</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <v>179</v>
+      </c>
+      <c r="K57">
+        <v>173</v>
+      </c>
+      <c r="L57">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>24</v>
       </c>
       <c r="B58">
         <v>2</v>
       </c>
+      <c r="C58" s="1">
+        <v>43234</v>
+      </c>
       <c r="D58" t="s">
         <v>45</v>
       </c>
       <c r="E58" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" s="2">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="G58">
+        <v>35.163359999999997</v>
+      </c>
+      <c r="H58">
+        <v>-119.67448</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>386</v>
+      </c>
+      <c r="K58">
+        <v>314</v>
+      </c>
+      <c r="L58">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>25</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
+      <c r="C59" s="1">
+        <v>43234</v>
+      </c>
       <c r="D59" t="s">
         <v>45</v>
       </c>
       <c r="E59" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="G59">
+        <v>35.163710000000002</v>
+      </c>
+      <c r="H59">
+        <v>-119.67426</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>343</v>
+      </c>
+      <c r="K59">
+        <v>262</v>
+      </c>
+      <c r="L59">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>26</v>
       </c>
       <c r="B60">
         <v>2</v>
       </c>
+      <c r="C60" s="1">
+        <v>43234</v>
+      </c>
       <c r="D60" t="s">
         <v>45</v>
       </c>
       <c r="E60" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" s="2">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="G60">
+        <v>35.163910000000001</v>
+      </c>
+      <c r="H60">
+        <v>-119.67435999999999</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>295</v>
+      </c>
+      <c r="K60">
+        <v>276</v>
+      </c>
+      <c r="L60">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>27</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
+      <c r="C61" s="1">
+        <v>43234</v>
+      </c>
       <c r="D61" t="s">
         <v>45</v>
       </c>
       <c r="E61" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" s="2">
+        <v>0.4458333333333333</v>
+      </c>
+      <c r="G61">
+        <v>35.163670000000003</v>
+      </c>
+      <c r="H61">
+        <v>-119.64761</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>386</v>
+      </c>
+      <c r="K61">
+        <v>317</v>
+      </c>
+      <c r="L61">
+        <v>148</v>
+      </c>
+      <c r="M61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>28</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
+      <c r="C62" s="1">
+        <v>43234</v>
+      </c>
       <c r="D62" t="s">
         <v>45</v>
       </c>
       <c r="E62" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" s="2">
+        <v>0.47083333333333338</v>
+      </c>
+      <c r="G62">
+        <v>35.163069999999998</v>
+      </c>
+      <c r="H62">
+        <v>-119.67505</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>304</v>
+      </c>
+      <c r="K62">
+        <v>256</v>
+      </c>
+      <c r="L62">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>29</v>
       </c>
       <c r="B63">
         <v>2</v>
       </c>
+      <c r="C63" s="1">
+        <v>43234</v>
+      </c>
       <c r="D63" t="s">
         <v>45</v>
       </c>
       <c r="E63" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" s="2">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="G63">
+        <v>35.163150000000002</v>
+      </c>
+      <c r="H63">
+        <v>-119.67476000000001</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>384</v>
+      </c>
+      <c r="K63">
+        <v>298</v>
+      </c>
+      <c r="L63">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>30</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
+      <c r="C64" s="1">
+        <v>43234</v>
+      </c>
       <c r="D64" t="s">
         <v>45</v>
       </c>
       <c r="E64" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G64">
+        <v>35.16283</v>
+      </c>
+      <c r="H64">
+        <v>-119.67534999999999</v>
+      </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <v>397</v>
+      </c>
+      <c r="K64">
+        <v>275</v>
+      </c>
+      <c r="L64">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>31</v>
       </c>
       <c r="B65">
         <v>2</v>
       </c>
+      <c r="C65" s="1">
+        <v>43234</v>
+      </c>
       <c r="D65" t="s">
         <v>45</v>
       </c>
       <c r="E65" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" s="2">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="G65">
+        <v>35.162460000000003</v>
+      </c>
+      <c r="H65">
+        <v>-119.67507000000001</v>
+      </c>
+      <c r="I65">
+        <v>3</v>
+      </c>
+      <c r="J65">
+        <v>179</v>
+      </c>
+      <c r="K65">
+        <v>173</v>
+      </c>
+      <c r="L65">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>0</v>
       </c>
       <c r="B66">
         <v>3</v>
       </c>
+      <c r="C66" s="1">
+        <v>43240</v>
+      </c>
       <c r="D66" t="s">
         <v>44</v>
       </c>
       <c r="E66" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66" s="2">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="G66">
+        <v>35.118099999999998</v>
+      </c>
+      <c r="H66">
+        <v>-119.6311</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>305</v>
+      </c>
+      <c r="K66">
+        <v>292</v>
+      </c>
+      <c r="L66">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1</v>
       </c>
       <c r="B67">
         <v>3</v>
       </c>
+      <c r="C67" s="1">
+        <v>43240</v>
+      </c>
       <c r="D67" t="s">
         <v>44</v>
       </c>
       <c r="E67" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="G67">
+        <v>35.117600000000003</v>
+      </c>
+      <c r="H67">
+        <v>-119.63077</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>191</v>
+      </c>
+      <c r="K67">
+        <v>185</v>
+      </c>
+      <c r="L67">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>2</v>
       </c>
       <c r="B68">
         <v>3</v>
       </c>
+      <c r="C68" s="1">
+        <v>43240</v>
+      </c>
       <c r="D68" t="s">
         <v>44</v>
       </c>
       <c r="E68" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="G68">
+        <v>35.12003</v>
+      </c>
+      <c r="H68">
+        <v>-119.62756</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>426</v>
+      </c>
+      <c r="K68">
+        <v>348</v>
+      </c>
+      <c r="L68">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>3</v>
       </c>
       <c r="B69">
         <v>3</v>
       </c>
+      <c r="C69" s="1">
+        <v>43240</v>
+      </c>
       <c r="D69" t="s">
         <v>44</v>
       </c>
       <c r="E69" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G69">
+        <v>35.12124</v>
+      </c>
+      <c r="H69">
+        <v>-119.62891</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>345</v>
+      </c>
+      <c r="K69">
+        <v>208</v>
+      </c>
+      <c r="L69">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>4</v>
       </c>
       <c r="B70">
         <v>3</v>
       </c>
+      <c r="C70" s="1">
+        <v>43240</v>
+      </c>
       <c r="D70" t="s">
         <v>44</v>
       </c>
       <c r="E70" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70" s="2">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="G70">
+        <v>35.121000000000002</v>
+      </c>
+      <c r="H70">
+        <v>-119.62891</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>254</v>
+      </c>
+      <c r="K70">
+        <v>101</v>
+      </c>
+      <c r="L70">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>5</v>
       </c>
       <c r="B71">
         <v>3</v>
       </c>
+      <c r="C71" s="1">
+        <v>43240</v>
+      </c>
       <c r="D71" t="s">
         <v>44</v>
       </c>
       <c r="E71" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G71">
+        <v>35.120440000000002</v>
+      </c>
+      <c r="H71">
+        <v>-119.62775000000001</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>338</v>
+      </c>
+      <c r="K71">
+        <v>320</v>
+      </c>
+      <c r="L71">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>6</v>
       </c>
       <c r="B72">
         <v>3</v>
       </c>
+      <c r="C72" s="1">
+        <v>43240</v>
+      </c>
       <c r="D72" t="s">
         <v>44</v>
       </c>
       <c r="E72" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72" s="2">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="G72">
+        <v>35.117870000000003</v>
+      </c>
+      <c r="H72">
+        <v>-119.63129000000001</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>284</v>
+      </c>
+      <c r="K72">
+        <v>264</v>
+      </c>
+      <c r="L72">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>7</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
+      <c r="C73" s="1">
+        <v>43240</v>
+      </c>
       <c r="D73" t="s">
         <v>44</v>
       </c>
       <c r="E73" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73" s="2">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="G73">
+        <v>35.11721</v>
+      </c>
+      <c r="H73">
+        <v>-119.63122</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>244</v>
+      </c>
+      <c r="K73">
+        <v>211</v>
+      </c>
+      <c r="L73">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>8</v>
       </c>
       <c r="B74">
         <v>3</v>
       </c>
+      <c r="C74" s="1">
+        <v>43240</v>
+      </c>
       <c r="D74" t="s">
         <v>44</v>
       </c>
       <c r="E74" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74" s="2">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="G74">
+        <v>35.118099999999998</v>
+      </c>
+      <c r="H74">
+        <v>-119.6311</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>305</v>
+      </c>
+      <c r="K74">
+        <v>292</v>
+      </c>
+      <c r="L74">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>9</v>
       </c>
       <c r="B75">
         <v>3</v>
       </c>
+      <c r="C75" s="1">
+        <v>43240</v>
+      </c>
       <c r="D75" t="s">
         <v>44</v>
       </c>
       <c r="E75" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="G75">
+        <v>35.117600000000003</v>
+      </c>
+      <c r="H75">
+        <v>-119.63077</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>191</v>
+      </c>
+      <c r="K75">
+        <v>185</v>
+      </c>
+      <c r="L75">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>10</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
+      <c r="C76" s="1">
+        <v>43240</v>
+      </c>
       <c r="D76" t="s">
         <v>44</v>
       </c>
       <c r="E76" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="G76">
+        <v>35.12003</v>
+      </c>
+      <c r="H76">
+        <v>-119.62756</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>426</v>
+      </c>
+      <c r="K76">
+        <v>348</v>
+      </c>
+      <c r="L76">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>11</v>
       </c>
       <c r="B77">
         <v>3</v>
       </c>
+      <c r="C77" s="1">
+        <v>43240</v>
+      </c>
       <c r="D77" t="s">
         <v>44</v>
       </c>
       <c r="E77" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G77">
+        <v>35.12124</v>
+      </c>
+      <c r="H77">
+        <v>-119.62891</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>345</v>
+      </c>
+      <c r="K77">
+        <v>208</v>
+      </c>
+      <c r="L77">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>12</v>
       </c>
       <c r="B78">
         <v>3</v>
       </c>
+      <c r="C78" s="1">
+        <v>43240</v>
+      </c>
       <c r="D78" t="s">
         <v>44</v>
       </c>
       <c r="E78" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78" s="2">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="G78">
+        <v>35.121000000000002</v>
+      </c>
+      <c r="H78">
+        <v>-119.62891</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>254</v>
+      </c>
+      <c r="K78">
+        <v>101</v>
+      </c>
+      <c r="L78">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>13</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
+      <c r="C79" s="1">
+        <v>43240</v>
+      </c>
       <c r="D79" t="s">
         <v>44</v>
       </c>
       <c r="E79" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G79">
+        <v>35.120440000000002</v>
+      </c>
+      <c r="H79">
+        <v>-119.62775000000001</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>338</v>
+      </c>
+      <c r="K79">
+        <v>320</v>
+      </c>
+      <c r="L79">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>14</v>
       </c>
       <c r="B80">
         <v>3</v>
       </c>
+      <c r="C80" s="1">
+        <v>43240</v>
+      </c>
       <c r="D80" t="s">
         <v>44</v>
       </c>
       <c r="E80" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80" s="2">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="G80">
+        <v>35.117870000000003</v>
+      </c>
+      <c r="H80">
+        <v>-119.63129000000001</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>284</v>
+      </c>
+      <c r="K80">
+        <v>264</v>
+      </c>
+      <c r="L80">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>15</v>
       </c>
       <c r="B81">
         <v>3</v>
       </c>
+      <c r="C81" s="1">
+        <v>43240</v>
+      </c>
       <c r="D81" t="s">
         <v>44</v>
       </c>
       <c r="E81" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81" s="2">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="G81">
+        <v>35.11721</v>
+      </c>
+      <c r="H81">
+        <v>-119.63122</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <v>244</v>
+      </c>
+      <c r="K81">
+        <v>211</v>
+      </c>
+      <c r="L81">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>16</v>
       </c>
       <c r="B82">
         <v>3</v>
       </c>
+      <c r="C82" s="1">
+        <v>43237</v>
+      </c>
       <c r="D82" t="s">
         <v>45</v>
       </c>
       <c r="E82" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82" s="2">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="G82">
+        <v>35.164050000000003</v>
+      </c>
+      <c r="H82">
+        <v>-119.67372</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>233</v>
+      </c>
+      <c r="K82">
+        <v>205</v>
+      </c>
+      <c r="L82">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>17</v>
       </c>
       <c r="B83">
         <v>3</v>
       </c>
+      <c r="C83" s="1">
+        <v>43237</v>
+      </c>
       <c r="D83" t="s">
         <v>45</v>
       </c>
       <c r="E83" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83" s="2">
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="G83">
+        <v>35.164140000000003</v>
+      </c>
+      <c r="H83">
+        <v>-119.6742</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>283</v>
+      </c>
+      <c r="K83">
+        <v>172</v>
+      </c>
+      <c r="L83">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>18</v>
       </c>
       <c r="B84">
         <v>3</v>
       </c>
+      <c r="C84" s="1">
+        <v>43237</v>
+      </c>
       <c r="D84" t="s">
         <v>45</v>
       </c>
       <c r="E84" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84" s="2">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="G84">
+        <v>35.164540000000002</v>
+      </c>
+      <c r="H84">
+        <v>-119.67389</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>289</v>
+      </c>
+      <c r="K84">
+        <v>199</v>
+      </c>
+      <c r="L84">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>19</v>
       </c>
       <c r="B85">
         <v>3</v>
       </c>
+      <c r="C85" s="1">
+        <v>43237</v>
+      </c>
       <c r="D85" t="s">
         <v>45</v>
       </c>
       <c r="E85" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85" s="2">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="G85">
+        <v>35.164819999999999</v>
+      </c>
+      <c r="H85">
+        <v>-119.67341999999999</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>292</v>
+      </c>
+      <c r="K85">
+        <v>252</v>
+      </c>
+      <c r="L85">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>20</v>
       </c>
       <c r="B86">
         <v>3</v>
       </c>
+      <c r="C86" s="1">
+        <v>43237</v>
+      </c>
       <c r="D86" t="s">
         <v>45</v>
       </c>
       <c r="E86" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86" s="2">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="G86">
+        <v>35.163930000000001</v>
+      </c>
+      <c r="H86">
+        <v>-119.67525000000001</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>285</v>
+      </c>
+      <c r="K86">
+        <v>201</v>
+      </c>
+      <c r="L86">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>21</v>
       </c>
       <c r="B87">
         <v>3</v>
       </c>
+      <c r="C87" s="1">
+        <v>43237</v>
+      </c>
       <c r="D87" t="s">
         <v>45</v>
       </c>
       <c r="E87" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87" s="2">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="G87">
+        <v>35.163699999999999</v>
+      </c>
+      <c r="H87">
+        <v>-119.67503000000001</v>
+      </c>
+      <c r="I87">
+        <v>3</v>
+      </c>
+      <c r="J87">
+        <v>271</v>
+      </c>
+      <c r="K87">
+        <v>227</v>
+      </c>
+      <c r="L87">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>22</v>
       </c>
       <c r="B88">
         <v>3</v>
       </c>
+      <c r="C88" s="1">
+        <v>43237</v>
+      </c>
       <c r="D88" t="s">
         <v>45</v>
       </c>
       <c r="E88" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88" s="2">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="G88">
+        <v>35.163119999999999</v>
+      </c>
+      <c r="H88">
+        <v>-119.67577</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>314</v>
+      </c>
+      <c r="K88">
+        <v>251</v>
+      </c>
+      <c r="L88">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>23</v>
       </c>
       <c r="B89">
         <v>3</v>
       </c>
+      <c r="C89" s="1">
+        <v>43237</v>
+      </c>
       <c r="D89" t="s">
         <v>45</v>
       </c>
       <c r="E89" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89" s="2">
+        <v>0.4458333333333333</v>
+      </c>
+      <c r="G89">
+        <v>35.163550000000001</v>
+      </c>
+      <c r="H89">
+        <v>-119.6758</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>375</v>
+      </c>
+      <c r="K89">
+        <v>245</v>
+      </c>
+      <c r="L89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>24</v>
       </c>
       <c r="B90">
         <v>3</v>
       </c>
+      <c r="C90" s="1">
+        <v>43237</v>
+      </c>
       <c r="D90" t="s">
         <v>45</v>
       </c>
       <c r="E90" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90" s="2">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="G90">
+        <v>35.164050000000003</v>
+      </c>
+      <c r="H90">
+        <v>-119.67372</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>233</v>
+      </c>
+      <c r="K90">
+        <v>205</v>
+      </c>
+      <c r="L90">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>25</v>
       </c>
       <c r="B91">
         <v>3</v>
       </c>
+      <c r="C91" s="1">
+        <v>43237</v>
+      </c>
       <c r="D91" t="s">
         <v>45</v>
       </c>
       <c r="E91" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91" s="2">
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="G91">
+        <v>35.164140000000003</v>
+      </c>
+      <c r="H91">
+        <v>-119.6742</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>283</v>
+      </c>
+      <c r="K91">
+        <v>172</v>
+      </c>
+      <c r="L91">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>26</v>
       </c>
       <c r="B92">
         <v>3</v>
       </c>
+      <c r="C92" s="1">
+        <v>43237</v>
+      </c>
       <c r="D92" t="s">
         <v>45</v>
       </c>
       <c r="E92" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92" s="2">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="G92">
+        <v>35.164540000000002</v>
+      </c>
+      <c r="H92">
+        <v>-119.67389</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92">
+        <v>289</v>
+      </c>
+      <c r="K92">
+        <v>199</v>
+      </c>
+      <c r="L92">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>27</v>
       </c>
       <c r="B93">
         <v>3</v>
       </c>
+      <c r="C93" s="1">
+        <v>43237</v>
+      </c>
       <c r="D93" t="s">
         <v>45</v>
       </c>
       <c r="E93" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93" s="2">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="G93">
+        <v>35.164819999999999</v>
+      </c>
+      <c r="H93">
+        <v>-119.67341999999999</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>292</v>
+      </c>
+      <c r="K93">
+        <v>252</v>
+      </c>
+      <c r="L93">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>28</v>
       </c>
       <c r="B94">
         <v>3</v>
       </c>
+      <c r="C94" s="1">
+        <v>43237</v>
+      </c>
       <c r="D94" t="s">
         <v>45</v>
       </c>
       <c r="E94" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94" s="2">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="G94">
+        <v>35.163930000000001</v>
+      </c>
+      <c r="H94">
+        <v>-119.67525000000001</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>285</v>
+      </c>
+      <c r="K94">
+        <v>201</v>
+      </c>
+      <c r="L94">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>29</v>
       </c>
       <c r="B95">
         <v>3</v>
       </c>
+      <c r="C95" s="1">
+        <v>43237</v>
+      </c>
       <c r="D95" t="s">
         <v>45</v>
       </c>
       <c r="E95" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95" s="2">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="G95">
+        <v>35.163699999999999</v>
+      </c>
+      <c r="H95">
+        <v>-119.67503000000001</v>
+      </c>
+      <c r="I95">
+        <v>3</v>
+      </c>
+      <c r="J95">
+        <v>271</v>
+      </c>
+      <c r="K95">
+        <v>227</v>
+      </c>
+      <c r="L95">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>30</v>
       </c>
       <c r="B96">
         <v>3</v>
       </c>
+      <c r="C96" s="1">
+        <v>43237</v>
+      </c>
       <c r="D96" t="s">
         <v>45</v>
       </c>
       <c r="E96" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96" s="2">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="G96">
+        <v>35.163119999999999</v>
+      </c>
+      <c r="H96">
+        <v>-119.67577</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>314</v>
+      </c>
+      <c r="K96">
+        <v>251</v>
+      </c>
+      <c r="L96">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>31</v>
       </c>
       <c r="B97">
         <v>3</v>
       </c>
+      <c r="C97" s="1">
+        <v>43237</v>
+      </c>
       <c r="D97" t="s">
         <v>45</v>
       </c>
       <c r="E97" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97" s="2">
+        <v>0.4458333333333333</v>
+      </c>
+      <c r="G97">
+        <v>35.163550000000001</v>
+      </c>
+      <c r="H97">
+        <v>-119.6758</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>375</v>
+      </c>
+      <c r="K97">
+        <v>245</v>
+      </c>
+      <c r="L97">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>0</v>
       </c>
       <c r="B98">
         <v>4</v>
       </c>
+      <c r="C98" s="1">
+        <v>43245</v>
+      </c>
       <c r="D98" t="s">
         <v>44</v>
       </c>
       <c r="E98" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98" s="2">
+        <v>0.49027777777777781</v>
+      </c>
+      <c r="G98">
+        <v>35.11768</v>
+      </c>
+      <c r="H98">
+        <v>-119.63171</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>257</v>
+      </c>
+      <c r="K98">
+        <v>228</v>
+      </c>
+      <c r="L98">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1</v>
       </c>
       <c r="B99">
         <v>4</v>
       </c>
+      <c r="C99" s="1">
+        <v>43245</v>
+      </c>
       <c r="D99" t="s">
         <v>44</v>
       </c>
       <c r="E99" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99" s="2">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="G99">
+        <v>35.117910000000002</v>
+      </c>
+      <c r="H99">
+        <v>-119.63262</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+      <c r="J99">
+        <v>398</v>
+      </c>
+      <c r="K99">
+        <v>273</v>
+      </c>
+      <c r="L99">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>2</v>
       </c>
       <c r="B100">
         <v>4</v>
       </c>
+      <c r="C100" s="1">
+        <v>43245</v>
+      </c>
       <c r="D100" t="s">
         <v>44</v>
       </c>
       <c r="E100" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G100">
+        <v>35.120780000000003</v>
+      </c>
+      <c r="H100">
+        <v>-119.62711</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>332</v>
+      </c>
+      <c r="K100">
+        <v>199</v>
+      </c>
+      <c r="L100">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>3</v>
       </c>
       <c r="B101">
         <v>4</v>
       </c>
+      <c r="C101" s="1">
+        <v>43245</v>
+      </c>
       <c r="D101" t="s">
         <v>44</v>
       </c>
       <c r="E101" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101" s="2">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="G101">
+        <v>35.121470000000002</v>
+      </c>
+      <c r="H101">
+        <v>-119.62784000000001</v>
+      </c>
+      <c r="I101">
+        <v>3</v>
+      </c>
+      <c r="J101">
+        <v>245</v>
+      </c>
+      <c r="K101">
+        <v>167</v>
+      </c>
+      <c r="L101">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>4</v>
       </c>
       <c r="B102">
         <v>4</v>
       </c>
+      <c r="C102" s="1">
+        <v>43245</v>
+      </c>
       <c r="D102" t="s">
         <v>44</v>
       </c>
       <c r="E102" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G102">
+        <v>35.121369999999999</v>
+      </c>
+      <c r="H102">
+        <v>-119.62811000000001</v>
+      </c>
+      <c r="I102">
+        <v>2</v>
+      </c>
+      <c r="J102">
+        <v>204</v>
+      </c>
+      <c r="K102">
+        <v>193</v>
+      </c>
+      <c r="L102">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>5</v>
       </c>
       <c r="B103">
         <v>4</v>
       </c>
+      <c r="C103" s="1">
+        <v>43245</v>
+      </c>
       <c r="D103" t="s">
         <v>44</v>
       </c>
       <c r="E103" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103" s="2">
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="G103">
+        <v>35.120759999999997</v>
+      </c>
+      <c r="H103">
+        <v>-119.62675</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>280</v>
+      </c>
+      <c r="K103">
+        <v>252</v>
+      </c>
+      <c r="L103">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>6</v>
       </c>
       <c r="B104">
         <v>4</v>
       </c>
+      <c r="C104" s="1">
+        <v>43245</v>
+      </c>
       <c r="D104" t="s">
         <v>44</v>
       </c>
       <c r="E104" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="G104">
+        <v>35.117370000000001</v>
+      </c>
+      <c r="H104">
+        <v>-119.63216</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>265</v>
+      </c>
+      <c r="K104">
+        <v>233</v>
+      </c>
+      <c r="L104">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>7</v>
       </c>
       <c r="B105">
         <v>4</v>
       </c>
+      <c r="C105" s="1">
+        <v>43245</v>
+      </c>
       <c r="D105" t="s">
         <v>44</v>
       </c>
       <c r="E105" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="F105" s="2">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="G105">
+        <v>35.117559999999997</v>
+      </c>
+      <c r="H105">
+        <v>-119.63276999999999</v>
+      </c>
+      <c r="I105">
+        <v>2</v>
+      </c>
+      <c r="J105">
+        <v>244</v>
+      </c>
+      <c r="K105">
+        <v>227</v>
+      </c>
+      <c r="L105">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>8</v>
       </c>
       <c r="B106">
         <v>4</v>
       </c>
+      <c r="C106" s="1">
+        <v>43245</v>
+      </c>
       <c r="D106" t="s">
         <v>44</v>
       </c>
       <c r="E106" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106" s="2">
+        <v>0.49027777777777781</v>
+      </c>
+      <c r="G106">
+        <v>35.11768</v>
+      </c>
+      <c r="H106">
+        <v>-119.63171</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>257</v>
+      </c>
+      <c r="K106">
+        <v>228</v>
+      </c>
+      <c r="L106">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>9</v>
       </c>
       <c r="B107">
         <v>4</v>
       </c>
+      <c r="C107" s="1">
+        <v>43245</v>
+      </c>
       <c r="D107" t="s">
         <v>44</v>
       </c>
       <c r="E107" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="F107" s="2">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="G107">
+        <v>35.117910000000002</v>
+      </c>
+      <c r="H107">
+        <v>-119.63262</v>
+      </c>
+      <c r="I107">
+        <v>2</v>
+      </c>
+      <c r="J107">
+        <v>398</v>
+      </c>
+      <c r="K107">
+        <v>273</v>
+      </c>
+      <c r="L107">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>10</v>
       </c>
       <c r="B108">
         <v>4</v>
       </c>
+      <c r="C108" s="1">
+        <v>43245</v>
+      </c>
       <c r="D108" t="s">
         <v>44</v>
       </c>
       <c r="E108" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G108">
+        <v>35.120780000000003</v>
+      </c>
+      <c r="H108">
+        <v>-119.62711</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>332</v>
+      </c>
+      <c r="K108">
+        <v>199</v>
+      </c>
+      <c r="L108">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>11</v>
       </c>
       <c r="B109">
         <v>4</v>
       </c>
+      <c r="C109" s="1">
+        <v>43245</v>
+      </c>
       <c r="D109" t="s">
         <v>44</v>
       </c>
       <c r="E109" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109" s="2">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="G109">
+        <v>35.121470000000002</v>
+      </c>
+      <c r="H109">
+        <v>-119.62784000000001</v>
+      </c>
+      <c r="I109">
+        <v>3</v>
+      </c>
+      <c r="J109">
+        <v>245</v>
+      </c>
+      <c r="K109">
+        <v>167</v>
+      </c>
+      <c r="L109">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>12</v>
       </c>
       <c r="B110">
         <v>4</v>
       </c>
+      <c r="C110" s="1">
+        <v>43245</v>
+      </c>
       <c r="D110" t="s">
         <v>44</v>
       </c>
       <c r="E110" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G110">
+        <v>35.121369999999999</v>
+      </c>
+      <c r="H110">
+        <v>-119.62811000000001</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110">
+        <v>204</v>
+      </c>
+      <c r="K110">
+        <v>193</v>
+      </c>
+      <c r="L110">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>13</v>
       </c>
       <c r="B111">
         <v>4</v>
       </c>
+      <c r="C111" s="1">
+        <v>43245</v>
+      </c>
       <c r="D111" t="s">
         <v>44</v>
       </c>
       <c r="E111" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111" s="2">
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="G111">
+        <v>35.120759999999997</v>
+      </c>
+      <c r="H111">
+        <v>-119.62675</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>280</v>
+      </c>
+      <c r="K111">
+        <v>252</v>
+      </c>
+      <c r="L111">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>14</v>
       </c>
       <c r="B112">
         <v>4</v>
       </c>
+      <c r="C112" s="1">
+        <v>43245</v>
+      </c>
       <c r="D112" t="s">
         <v>44</v>
       </c>
       <c r="E112" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="F112" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="G112">
+        <v>35.117370000000001</v>
+      </c>
+      <c r="H112">
+        <v>-119.63216</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>265</v>
+      </c>
+      <c r="K112">
+        <v>233</v>
+      </c>
+      <c r="L112">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>15</v>
       </c>
       <c r="B113">
         <v>4</v>
       </c>
+      <c r="C113" s="1">
+        <v>43245</v>
+      </c>
       <c r="D113" t="s">
         <v>44</v>
       </c>
       <c r="E113" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="F113" s="2">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="G113">
+        <v>35.117559999999997</v>
+      </c>
+      <c r="H113">
+        <v>-119.63276999999999</v>
+      </c>
+      <c r="I113">
+        <v>2</v>
+      </c>
+      <c r="J113">
+        <v>244</v>
+      </c>
+      <c r="K113">
+        <v>227</v>
+      </c>
+      <c r="L113">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>16</v>
       </c>
       <c r="B114">
         <v>4</v>
       </c>
+      <c r="C114" s="1">
+        <v>43240</v>
+      </c>
       <c r="D114" t="s">
         <v>45</v>
       </c>
       <c r="E114" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="F114" s="2">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="G114">
+        <v>35.164540000000002</v>
+      </c>
+      <c r="H114">
+        <v>-119.67442</v>
+      </c>
+      <c r="I114">
+        <v>2</v>
+      </c>
+      <c r="J114">
+        <v>244</v>
+      </c>
+      <c r="K114">
+        <v>175</v>
+      </c>
+      <c r="L114">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>17</v>
       </c>
       <c r="B115">
         <v>4</v>
       </c>
+      <c r="C115" s="1">
+        <v>43240</v>
+      </c>
       <c r="D115" t="s">
         <v>45</v>
       </c>
       <c r="E115" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="F115" s="2">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="G115">
+        <v>35.16478</v>
+      </c>
+      <c r="H115">
+        <v>-119.67955000000001</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>310</v>
+      </c>
+      <c r="K115">
+        <v>196</v>
+      </c>
+      <c r="L115">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>18</v>
       </c>
       <c r="B116">
         <v>4</v>
       </c>
+      <c r="C116" s="1">
+        <v>43240</v>
+      </c>
       <c r="D116" t="s">
         <v>45</v>
       </c>
       <c r="E116" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="F116" s="2">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="G116">
+        <v>35.165140000000001</v>
+      </c>
+      <c r="H116">
+        <v>-119.67437</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>290</v>
+      </c>
+      <c r="K116">
+        <v>272</v>
+      </c>
+      <c r="L116">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>19</v>
       </c>
       <c r="B117">
         <v>4</v>
       </c>
+      <c r="C117" s="1">
+        <v>43240</v>
+      </c>
       <c r="D117" t="s">
         <v>45</v>
       </c>
       <c r="E117" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="F117" s="2">
+        <v>0.47083333333333338</v>
+      </c>
+      <c r="G117">
+        <v>35.16536</v>
+      </c>
+      <c r="H117">
+        <v>-119.67416</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>234</v>
+      </c>
+      <c r="K117">
+        <v>155</v>
+      </c>
+      <c r="L117">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>20</v>
       </c>
       <c r="B118">
         <v>4</v>
       </c>
+      <c r="C118" s="1">
+        <v>43240</v>
+      </c>
       <c r="D118" t="s">
         <v>45</v>
       </c>
       <c r="E118" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="F118" s="2">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="G118">
+        <v>35.164209999999997</v>
+      </c>
+      <c r="H118">
+        <v>-119.67587</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>249</v>
+      </c>
+      <c r="K118">
+        <v>180</v>
+      </c>
+      <c r="L118">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>21</v>
       </c>
       <c r="B119">
         <v>4</v>
       </c>
+      <c r="C119" s="1">
+        <v>43240</v>
+      </c>
       <c r="D119" t="s">
         <v>45</v>
       </c>
       <c r="E119" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="F119" s="2">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="G119">
+        <v>35.167400000000001</v>
+      </c>
+      <c r="H119">
+        <v>-119.67595</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>304</v>
+      </c>
+      <c r="K119">
+        <v>180</v>
+      </c>
+      <c r="L119">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>22</v>
       </c>
       <c r="B120">
         <v>4</v>
       </c>
+      <c r="C120" s="1">
+        <v>43240</v>
+      </c>
       <c r="D120" t="s">
         <v>45</v>
       </c>
       <c r="E120" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="F120" s="2">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="G120">
+        <v>35.163499999999999</v>
+      </c>
+      <c r="H120">
+        <v>-119.67616</v>
+      </c>
+      <c r="I120">
+        <v>3</v>
+      </c>
+      <c r="J120">
+        <v>196</v>
+      </c>
+      <c r="K120">
+        <v>180</v>
+      </c>
+      <c r="L120">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>23</v>
       </c>
       <c r="B121">
         <v>4</v>
       </c>
+      <c r="C121" s="1">
+        <v>43240</v>
+      </c>
       <c r="D121" t="s">
         <v>45</v>
       </c>
       <c r="E121" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="F121" s="2">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G121">
+        <v>35.163870000000003</v>
+      </c>
+      <c r="H121">
+        <v>-119.67628999999999</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>221</v>
+      </c>
+      <c r="K121">
+        <v>191</v>
+      </c>
+      <c r="L121">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>24</v>
       </c>
       <c r="B122">
         <v>4</v>
       </c>
+      <c r="C122" s="1">
+        <v>43240</v>
+      </c>
       <c r="D122" t="s">
         <v>45</v>
       </c>
       <c r="E122" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="F122" s="2">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="G122">
+        <v>35.164540000000002</v>
+      </c>
+      <c r="H122">
+        <v>-119.67442</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122">
+        <v>244</v>
+      </c>
+      <c r="K122">
+        <v>175</v>
+      </c>
+      <c r="L122">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>25</v>
       </c>
       <c r="B123">
         <v>4</v>
       </c>
+      <c r="C123" s="1">
+        <v>43240</v>
+      </c>
       <c r="D123" t="s">
         <v>45</v>
       </c>
       <c r="E123" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="F123" s="2">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="G123">
+        <v>35.16478</v>
+      </c>
+      <c r="H123">
+        <v>-119.67955000000001</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>310</v>
+      </c>
+      <c r="K123">
+        <v>196</v>
+      </c>
+      <c r="L123">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>26</v>
       </c>
       <c r="B124">
         <v>4</v>
       </c>
+      <c r="C124" s="1">
+        <v>43240</v>
+      </c>
       <c r="D124" t="s">
         <v>45</v>
       </c>
       <c r="E124" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="F124" s="2">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="G124">
+        <v>35.165140000000001</v>
+      </c>
+      <c r="H124">
+        <v>-119.67437</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>290</v>
+      </c>
+      <c r="K124">
+        <v>272</v>
+      </c>
+      <c r="L124">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>27</v>
       </c>
       <c r="B125">
         <v>4</v>
       </c>
+      <c r="C125" s="1">
+        <v>43240</v>
+      </c>
       <c r="D125" t="s">
         <v>45</v>
       </c>
       <c r="E125" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="F125" s="2">
+        <v>0.47083333333333338</v>
+      </c>
+      <c r="G125">
+        <v>35.16536</v>
+      </c>
+      <c r="H125">
+        <v>-119.67416</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>234</v>
+      </c>
+      <c r="K125">
+        <v>155</v>
+      </c>
+      <c r="L125">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>28</v>
       </c>
       <c r="B126">
         <v>4</v>
       </c>
+      <c r="C126" s="1">
+        <v>43240</v>
+      </c>
       <c r="D126" t="s">
         <v>45</v>
       </c>
       <c r="E126" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="F126" s="2">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="G126">
+        <v>35.164209999999997</v>
+      </c>
+      <c r="H126">
+        <v>-119.67587</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>249</v>
+      </c>
+      <c r="K126">
+        <v>180</v>
+      </c>
+      <c r="L126">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>29</v>
       </c>
       <c r="B127">
         <v>4</v>
       </c>
+      <c r="C127" s="1">
+        <v>43240</v>
+      </c>
       <c r="D127" t="s">
         <v>45</v>
       </c>
       <c r="E127" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="F127" s="2">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="G127">
+        <v>35.167400000000001</v>
+      </c>
+      <c r="H127">
+        <v>-119.67595</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>304</v>
+      </c>
+      <c r="K127">
+        <v>180</v>
+      </c>
+      <c r="L127">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>30</v>
       </c>
       <c r="B128">
         <v>4</v>
       </c>
+      <c r="C128" s="1">
+        <v>43240</v>
+      </c>
       <c r="D128" t="s">
         <v>45</v>
       </c>
       <c r="E128" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="F128" s="2">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="G128">
+        <v>35.163499999999999</v>
+      </c>
+      <c r="H128">
+        <v>-119.67616</v>
+      </c>
+      <c r="I128">
+        <v>3</v>
+      </c>
+      <c r="J128">
+        <v>196</v>
+      </c>
+      <c r="K128">
+        <v>180</v>
+      </c>
+      <c r="L128">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>31</v>
       </c>
       <c r="B129">
         <v>4</v>
       </c>
+      <c r="C129" s="1">
+        <v>43240</v>
+      </c>
       <c r="D129" t="s">
         <v>45</v>
       </c>
       <c r="E129" t="s">
         <v>47</v>
+      </c>
+      <c r="F129" s="2">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G129">
+        <v>35.163870000000003</v>
+      </c>
+      <c r="H129">
+        <v>-119.67628999999999</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>221</v>
+      </c>
+      <c r="K129">
+        <v>191</v>
+      </c>
+      <c r="L129">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>16</v>
+      </c>
+      <c r="B130">
+        <v>5</v>
+      </c>
+      <c r="C130" s="1">
+        <v>43243</v>
+      </c>
+      <c r="D130" t="s">
+        <v>45</v>
+      </c>
+      <c r="E130" t="s">
+        <v>46</v>
+      </c>
+      <c r="F130" s="2">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="G130">
+        <v>35.164850000000001</v>
+      </c>
+      <c r="H130">
+        <v>-119.67504</v>
+      </c>
+      <c r="I130">
+        <v>3</v>
+      </c>
+      <c r="J130">
+        <v>328</v>
+      </c>
+      <c r="K130">
+        <v>261</v>
+      </c>
+      <c r="L130">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="C131" s="1">
+        <v>43243</v>
+      </c>
+      <c r="D131" t="s">
+        <v>45</v>
+      </c>
+      <c r="E131" t="s">
+        <v>46</v>
+      </c>
+      <c r="F131" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="G131">
+        <v>35.164499999999997</v>
+      </c>
+      <c r="H131">
+        <v>-119.67529</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>371</v>
+      </c>
+      <c r="K131">
+        <v>231</v>
+      </c>
+      <c r="L131">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>18</v>
+      </c>
+      <c r="B132">
+        <v>5</v>
+      </c>
+      <c r="C132" s="1">
+        <v>43243</v>
+      </c>
+      <c r="D132" t="s">
+        <v>45</v>
+      </c>
+      <c r="E132" t="s">
+        <v>46</v>
+      </c>
+      <c r="F132" s="2">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="G132">
+        <v>35.165190000000003</v>
+      </c>
+      <c r="H132">
+        <v>-119.67467000000001</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>256</v>
+      </c>
+      <c r="K132">
+        <v>197</v>
+      </c>
+      <c r="L132">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>19</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="C133" s="1">
+        <v>43243</v>
+      </c>
+      <c r="D133" t="s">
+        <v>45</v>
+      </c>
+      <c r="E133" t="s">
+        <v>46</v>
+      </c>
+      <c r="F133" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="G133">
+        <v>35.165280000000003</v>
+      </c>
+      <c r="H133">
+        <v>-119.64491</v>
+      </c>
+      <c r="I133">
+        <v>2</v>
+      </c>
+      <c r="J133">
+        <v>229</v>
+      </c>
+      <c r="K133">
+        <v>203</v>
+      </c>
+      <c r="L133">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>20</v>
+      </c>
+      <c r="B134">
+        <v>5</v>
+      </c>
+      <c r="C134" s="1">
+        <v>43243</v>
+      </c>
+      <c r="D134" t="s">
+        <v>45</v>
+      </c>
+      <c r="E134" t="s">
+        <v>46</v>
+      </c>
+      <c r="F134" s="2">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="G134">
+        <v>35.164250000000003</v>
+      </c>
+      <c r="H134">
+        <v>-119.67639</v>
+      </c>
+      <c r="I134">
+        <v>8</v>
+      </c>
+      <c r="J134">
+        <v>360</v>
+      </c>
+      <c r="K134">
+        <v>335</v>
+      </c>
+      <c r="L134">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135">
+        <v>5</v>
+      </c>
+      <c r="C135" s="1">
+        <v>43243</v>
+      </c>
+      <c r="D135" t="s">
+        <v>45</v>
+      </c>
+      <c r="E135" t="s">
+        <v>46</v>
+      </c>
+      <c r="F135" s="2">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="G135">
+        <v>35.164450000000002</v>
+      </c>
+      <c r="H135">
+        <v>-119.6765</v>
+      </c>
+      <c r="I135">
+        <v>3</v>
+      </c>
+      <c r="J135">
+        <v>275</v>
+      </c>
+      <c r="K135">
+        <v>271</v>
+      </c>
+      <c r="L135">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>22</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136" s="1">
+        <v>43243</v>
+      </c>
+      <c r="D136" t="s">
+        <v>45</v>
+      </c>
+      <c r="E136" t="s">
+        <v>46</v>
+      </c>
+      <c r="F136" s="2">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="G136">
+        <v>35.164079999999998</v>
+      </c>
+      <c r="H136">
+        <v>-119.67639</v>
+      </c>
+      <c r="I136">
+        <v>4</v>
+      </c>
+      <c r="J136">
+        <v>294</v>
+      </c>
+      <c r="K136">
+        <v>192</v>
+      </c>
+      <c r="L136">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>23</v>
+      </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
+      <c r="C137" s="1">
+        <v>43243</v>
+      </c>
+      <c r="D137" t="s">
+        <v>45</v>
+      </c>
+      <c r="E137" t="s">
+        <v>46</v>
+      </c>
+      <c r="F137" s="2">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="G137">
+        <v>35.16413</v>
+      </c>
+      <c r="H137">
+        <v>-119.67677</v>
+      </c>
+      <c r="I137">
+        <v>5</v>
+      </c>
+      <c r="J137">
+        <v>284</v>
+      </c>
+      <c r="K137">
+        <v>192</v>
+      </c>
+      <c r="L137">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>24</v>
+      </c>
+      <c r="B138">
+        <v>5</v>
+      </c>
+      <c r="C138" s="1">
+        <v>43243</v>
+      </c>
+      <c r="D138" t="s">
+        <v>45</v>
+      </c>
+      <c r="E138" t="s">
+        <v>47</v>
+      </c>
+      <c r="F138" s="2">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="G138">
+        <v>35.164850000000001</v>
+      </c>
+      <c r="H138">
+        <v>-119.67504</v>
+      </c>
+      <c r="I138">
+        <v>3</v>
+      </c>
+      <c r="J138">
+        <v>328</v>
+      </c>
+      <c r="K138">
+        <v>261</v>
+      </c>
+      <c r="L138">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>25</v>
+      </c>
+      <c r="B139">
+        <v>5</v>
+      </c>
+      <c r="C139" s="1">
+        <v>43243</v>
+      </c>
+      <c r="D139" t="s">
+        <v>45</v>
+      </c>
+      <c r="E139" t="s">
+        <v>47</v>
+      </c>
+      <c r="F139" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="G139">
+        <v>35.164499999999997</v>
+      </c>
+      <c r="H139">
+        <v>-119.67529</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>371</v>
+      </c>
+      <c r="K139">
+        <v>231</v>
+      </c>
+      <c r="L139">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>26</v>
+      </c>
+      <c r="B140">
+        <v>5</v>
+      </c>
+      <c r="C140" s="1">
+        <v>43243</v>
+      </c>
+      <c r="D140" t="s">
+        <v>45</v>
+      </c>
+      <c r="E140" t="s">
+        <v>47</v>
+      </c>
+      <c r="F140" s="2">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="G140">
+        <v>35.165190000000003</v>
+      </c>
+      <c r="H140">
+        <v>-119.67467000000001</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>256</v>
+      </c>
+      <c r="K140">
+        <v>197</v>
+      </c>
+      <c r="L140">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>27</v>
+      </c>
+      <c r="B141">
+        <v>5</v>
+      </c>
+      <c r="C141" s="1">
+        <v>43243</v>
+      </c>
+      <c r="D141" t="s">
+        <v>45</v>
+      </c>
+      <c r="E141" t="s">
+        <v>47</v>
+      </c>
+      <c r="F141" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="G141">
+        <v>35.165280000000003</v>
+      </c>
+      <c r="H141">
+        <v>-119.64491</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141">
+        <v>229</v>
+      </c>
+      <c r="K141">
+        <v>203</v>
+      </c>
+      <c r="L141">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>28</v>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+      <c r="C142" s="1">
+        <v>43243</v>
+      </c>
+      <c r="D142" t="s">
+        <v>45</v>
+      </c>
+      <c r="E142" t="s">
+        <v>47</v>
+      </c>
+      <c r="F142" s="2">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="G142">
+        <v>35.164250000000003</v>
+      </c>
+      <c r="H142">
+        <v>-119.67639</v>
+      </c>
+      <c r="I142">
+        <v>8</v>
+      </c>
+      <c r="J142">
+        <v>360</v>
+      </c>
+      <c r="K142">
+        <v>335</v>
+      </c>
+      <c r="L142">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>29</v>
+      </c>
+      <c r="B143">
+        <v>5</v>
+      </c>
+      <c r="C143" s="1">
+        <v>43243</v>
+      </c>
+      <c r="D143" t="s">
+        <v>45</v>
+      </c>
+      <c r="E143" t="s">
+        <v>47</v>
+      </c>
+      <c r="F143" s="2">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="G143">
+        <v>35.164450000000002</v>
+      </c>
+      <c r="H143">
+        <v>-119.6765</v>
+      </c>
+      <c r="I143">
+        <v>3</v>
+      </c>
+      <c r="J143">
+        <v>275</v>
+      </c>
+      <c r="K143">
+        <v>271</v>
+      </c>
+      <c r="L143">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>30</v>
+      </c>
+      <c r="B144">
+        <v>5</v>
+      </c>
+      <c r="C144" s="1">
+        <v>43243</v>
+      </c>
+      <c r="D144" t="s">
+        <v>45</v>
+      </c>
+      <c r="E144" t="s">
+        <v>47</v>
+      </c>
+      <c r="F144" s="2">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="G144">
+        <v>35.164079999999998</v>
+      </c>
+      <c r="H144">
+        <v>-119.67639</v>
+      </c>
+      <c r="I144">
+        <v>4</v>
+      </c>
+      <c r="J144">
+        <v>294</v>
+      </c>
+      <c r="K144">
+        <v>192</v>
+      </c>
+      <c r="L144">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>31</v>
+      </c>
+      <c r="B145">
+        <v>5</v>
+      </c>
+      <c r="C145" s="1">
+        <v>43243</v>
+      </c>
+      <c r="D145" t="s">
+        <v>45</v>
+      </c>
+      <c r="E145" t="s">
+        <v>47</v>
+      </c>
+      <c r="F145" s="2">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="G145">
+        <v>35.16413</v>
+      </c>
+      <c r="H145">
+        <v>-119.67677</v>
+      </c>
+      <c r="I145">
+        <v>5</v>
+      </c>
+      <c r="J145">
+        <v>284</v>
+      </c>
+      <c r="K145">
+        <v>192</v>
+      </c>
+      <c r="L145">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>16</v>
+      </c>
+      <c r="B146">
+        <v>6</v>
+      </c>
+      <c r="C146" s="1">
+        <v>43246</v>
+      </c>
+      <c r="D146" t="s">
+        <v>45</v>
+      </c>
+      <c r="E146" t="s">
+        <v>46</v>
+      </c>
+      <c r="F146" s="2">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="G146">
+        <v>35.165050000000001</v>
+      </c>
+      <c r="H146">
+        <v>-119.67527</v>
+      </c>
+      <c r="I146">
+        <v>6</v>
+      </c>
+      <c r="J146">
+        <v>294</v>
+      </c>
+      <c r="K146">
+        <v>140</v>
+      </c>
+      <c r="L146">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>17</v>
+      </c>
+      <c r="B147">
+        <v>6</v>
+      </c>
+      <c r="C147" s="1">
+        <v>43246</v>
+      </c>
+      <c r="D147" t="s">
+        <v>45</v>
+      </c>
+      <c r="E147" t="s">
+        <v>46</v>
+      </c>
+      <c r="F147" s="2">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="G147">
+        <v>35.164839999999998</v>
+      </c>
+      <c r="H147">
+        <v>-119.67556999999999</v>
+      </c>
+      <c r="I147">
+        <v>3</v>
+      </c>
+      <c r="J147">
+        <v>306</v>
+      </c>
+      <c r="K147">
+        <v>208</v>
+      </c>
+      <c r="L147">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>18</v>
+      </c>
+      <c r="B148">
+        <v>6</v>
+      </c>
+      <c r="C148" s="1">
+        <v>43246</v>
+      </c>
+      <c r="D148" t="s">
+        <v>45</v>
+      </c>
+      <c r="E148" t="s">
+        <v>46</v>
+      </c>
+      <c r="F148" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="G148">
+        <v>35.16583</v>
+      </c>
+      <c r="H148">
+        <v>-119.67543999999999</v>
+      </c>
+      <c r="I148">
+        <v>4</v>
+      </c>
+      <c r="J148">
+        <v>210</v>
+      </c>
+      <c r="K148">
+        <v>186</v>
+      </c>
+      <c r="L148">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>19</v>
+      </c>
+      <c r="B149">
+        <v>6</v>
+      </c>
+      <c r="C149" s="1">
+        <v>43246</v>
+      </c>
+      <c r="D149" t="s">
+        <v>45</v>
+      </c>
+      <c r="E149" t="s">
+        <v>46</v>
+      </c>
+      <c r="F149" s="2">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="G149">
+        <v>35.165419999999997</v>
+      </c>
+      <c r="H149">
+        <v>-119.67514</v>
+      </c>
+      <c r="I149">
+        <v>8</v>
+      </c>
+      <c r="J149">
+        <v>275</v>
+      </c>
+      <c r="K149">
+        <v>260</v>
+      </c>
+      <c r="L149">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>20</v>
+      </c>
+      <c r="B150">
+        <v>6</v>
+      </c>
+      <c r="C150" s="1">
+        <v>43246</v>
+      </c>
+      <c r="D150" t="s">
+        <v>45</v>
+      </c>
+      <c r="E150" t="s">
+        <v>46</v>
+      </c>
+      <c r="F150" s="2">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="G150">
+        <v>35.164960000000001</v>
+      </c>
+      <c r="H150">
+        <v>-119.67662</v>
+      </c>
+      <c r="I150">
+        <v>9</v>
+      </c>
+      <c r="J150">
+        <v>289</v>
+      </c>
+      <c r="K150">
+        <v>285</v>
+      </c>
+      <c r="L150">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>21</v>
+      </c>
+      <c r="B151">
+        <v>6</v>
+      </c>
+      <c r="C151" s="1">
+        <v>43246</v>
+      </c>
+      <c r="D151" t="s">
+        <v>45</v>
+      </c>
+      <c r="E151" t="s">
+        <v>46</v>
+      </c>
+      <c r="F151" s="2">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="G151">
+        <v>35.164619999999999</v>
+      </c>
+      <c r="H151">
+        <v>-119.67653</v>
+      </c>
+      <c r="I151">
+        <v>6</v>
+      </c>
+      <c r="J151">
+        <v>263</v>
+      </c>
+      <c r="K151">
+        <v>238</v>
+      </c>
+      <c r="L151">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>22</v>
+      </c>
+      <c r="B152">
+        <v>6</v>
+      </c>
+      <c r="C152" s="1">
+        <v>43246</v>
+      </c>
+      <c r="D152" t="s">
+        <v>45</v>
+      </c>
+      <c r="E152" t="s">
+        <v>46</v>
+      </c>
+      <c r="F152" s="2">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="G152">
+        <v>35.164349999999999</v>
+      </c>
+      <c r="H152">
+        <v>-119.67695000000001</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>286</v>
+      </c>
+      <c r="K152">
+        <v>237</v>
+      </c>
+      <c r="L152">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>23</v>
+      </c>
+      <c r="B153">
+        <v>6</v>
+      </c>
+      <c r="C153" s="1">
+        <v>43246</v>
+      </c>
+      <c r="D153" t="s">
+        <v>45</v>
+      </c>
+      <c r="E153" t="s">
+        <v>46</v>
+      </c>
+      <c r="F153" s="2">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="G153">
+        <v>35.164470000000001</v>
+      </c>
+      <c r="H153">
+        <v>-119.67693</v>
+      </c>
+      <c r="I153">
+        <v>3</v>
+      </c>
+      <c r="J153">
+        <v>230</v>
+      </c>
+      <c r="K153">
+        <v>195</v>
+      </c>
+      <c r="L153">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>24</v>
+      </c>
+      <c r="B154">
+        <v>6</v>
+      </c>
+      <c r="C154" s="1">
+        <v>43246</v>
+      </c>
+      <c r="D154" t="s">
+        <v>45</v>
+      </c>
+      <c r="E154" t="s">
+        <v>47</v>
+      </c>
+      <c r="F154" s="2">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="G154">
+        <v>35.165050000000001</v>
+      </c>
+      <c r="H154">
+        <v>-119.67527</v>
+      </c>
+      <c r="I154">
+        <v>6</v>
+      </c>
+      <c r="J154">
+        <v>294</v>
+      </c>
+      <c r="K154">
+        <v>140</v>
+      </c>
+      <c r="L154">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>25</v>
+      </c>
+      <c r="B155">
+        <v>6</v>
+      </c>
+      <c r="C155" s="1">
+        <v>43246</v>
+      </c>
+      <c r="D155" t="s">
+        <v>45</v>
+      </c>
+      <c r="E155" t="s">
+        <v>47</v>
+      </c>
+      <c r="F155" s="2">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="G155">
+        <v>35.164839999999998</v>
+      </c>
+      <c r="H155">
+        <v>-119.67556999999999</v>
+      </c>
+      <c r="I155">
+        <v>3</v>
+      </c>
+      <c r="J155">
+        <v>306</v>
+      </c>
+      <c r="K155">
+        <v>208</v>
+      </c>
+      <c r="L155">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>26</v>
+      </c>
+      <c r="B156">
+        <v>6</v>
+      </c>
+      <c r="C156" s="1">
+        <v>43246</v>
+      </c>
+      <c r="D156" t="s">
+        <v>45</v>
+      </c>
+      <c r="E156" t="s">
+        <v>47</v>
+      </c>
+      <c r="F156" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="G156">
+        <v>35.16583</v>
+      </c>
+      <c r="H156">
+        <v>-119.67543999999999</v>
+      </c>
+      <c r="I156">
+        <v>4</v>
+      </c>
+      <c r="J156">
+        <v>210</v>
+      </c>
+      <c r="K156">
+        <v>186</v>
+      </c>
+      <c r="L156">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>27</v>
+      </c>
+      <c r="B157">
+        <v>6</v>
+      </c>
+      <c r="C157" s="1">
+        <v>43246</v>
+      </c>
+      <c r="D157" t="s">
+        <v>45</v>
+      </c>
+      <c r="E157" t="s">
+        <v>47</v>
+      </c>
+      <c r="F157" s="2">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="G157">
+        <v>35.165419999999997</v>
+      </c>
+      <c r="H157">
+        <v>-119.67514</v>
+      </c>
+      <c r="I157">
+        <v>8</v>
+      </c>
+      <c r="J157">
+        <v>275</v>
+      </c>
+      <c r="K157">
+        <v>260</v>
+      </c>
+      <c r="L157">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>28</v>
+      </c>
+      <c r="B158">
+        <v>6</v>
+      </c>
+      <c r="C158" s="1">
+        <v>43246</v>
+      </c>
+      <c r="D158" t="s">
+        <v>45</v>
+      </c>
+      <c r="E158" t="s">
+        <v>47</v>
+      </c>
+      <c r="F158" s="2">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="G158">
+        <v>35.164960000000001</v>
+      </c>
+      <c r="H158">
+        <v>-119.67662</v>
+      </c>
+      <c r="I158">
+        <v>9</v>
+      </c>
+      <c r="J158">
+        <v>289</v>
+      </c>
+      <c r="K158">
+        <v>285</v>
+      </c>
+      <c r="L158">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>29</v>
+      </c>
+      <c r="B159">
+        <v>6</v>
+      </c>
+      <c r="C159" s="1">
+        <v>43246</v>
+      </c>
+      <c r="D159" t="s">
+        <v>45</v>
+      </c>
+      <c r="E159" t="s">
+        <v>47</v>
+      </c>
+      <c r="F159" s="2">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="G159">
+        <v>35.164619999999999</v>
+      </c>
+      <c r="H159">
+        <v>-119.67653</v>
+      </c>
+      <c r="I159">
+        <v>6</v>
+      </c>
+      <c r="J159">
+        <v>263</v>
+      </c>
+      <c r="K159">
+        <v>238</v>
+      </c>
+      <c r="L159">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>30</v>
+      </c>
+      <c r="B160">
+        <v>6</v>
+      </c>
+      <c r="C160" s="1">
+        <v>43246</v>
+      </c>
+      <c r="D160" t="s">
+        <v>45</v>
+      </c>
+      <c r="E160" t="s">
+        <v>47</v>
+      </c>
+      <c r="F160" s="2">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="G160">
+        <v>35.164349999999999</v>
+      </c>
+      <c r="H160">
+        <v>-119.67695000000001</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>286</v>
+      </c>
+      <c r="K160">
+        <v>237</v>
+      </c>
+      <c r="L160">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>31</v>
+      </c>
+      <c r="B161">
+        <v>6</v>
+      </c>
+      <c r="C161" s="1">
+        <v>43246</v>
+      </c>
+      <c r="D161" t="s">
+        <v>45</v>
+      </c>
+      <c r="E161" t="s">
+        <v>47</v>
+      </c>
+      <c r="F161" s="2">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="G161">
+        <v>35.164470000000001</v>
+      </c>
+      <c r="H161">
+        <v>-119.67693</v>
+      </c>
+      <c r="I161">
+        <v>3</v>
+      </c>
+      <c r="J161">
+        <v>230</v>
+      </c>
+      <c r="K161">
+        <v>195</v>
+      </c>
+      <c r="L161">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>